--- a/test-data/8월_용역자명단.xlsx
+++ b/test-data/8월_용역자명단.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7BD6D-F4F7-464F-A303-38E2193D5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="20940" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="용역자명단" state="visible" r:id="rId4"/>
+    <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="153">
   <si>
     <t>순번</t>
   </si>
@@ -467,22 +471,37 @@
   </si>
   <si>
     <t>100100100020</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,10 +526,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -525,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -861,23 +888,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,43 +917,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>21</v>
       </c>
@@ -932,40 +967,43 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>22</v>
       </c>
@@ -976,40 +1014,43 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>23</v>
       </c>
@@ -1020,40 +1061,43 @@
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>24</v>
       </c>
@@ -1064,40 +1108,43 @@
         <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>25</v>
       </c>
@@ -1108,40 +1155,43 @@
         <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>26</v>
       </c>
@@ -1152,40 +1202,43 @@
         <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>27</v>
       </c>
@@ -1196,40 +1249,43 @@
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>28</v>
       </c>
@@ -1240,40 +1296,43 @@
         <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>29</v>
       </c>
@@ -1284,40 +1343,43 @@
         <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>30</v>
       </c>
@@ -1328,40 +1390,43 @@
         <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>31</v>
       </c>
@@ -1372,40 +1437,43 @@
         <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>32</v>
       </c>
@@ -1416,40 +1484,43 @@
         <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>33</v>
       </c>
@@ -1460,40 +1531,43 @@
         <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>34</v>
       </c>
@@ -1504,40 +1578,43 @@
         <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>35</v>
       </c>
@@ -1548,40 +1625,43 @@
         <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>36</v>
       </c>
@@ -1592,40 +1672,43 @@
         <v>124</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>37</v>
       </c>
@@ -1636,40 +1719,43 @@
         <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>38</v>
       </c>
@@ -1680,40 +1766,43 @@
         <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>39</v>
       </c>
@@ -1724,40 +1813,43 @@
         <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>40</v>
       </c>
@@ -1768,41 +1860,45 @@
         <v>148</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>